--- a/Carteira de Investimento/Carteira.xlsx
+++ b/Carteira de Investimento/Carteira.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,22 +30,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
     <t>Ativos</t>
   </si>
   <si>
     <t>Início</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>NUBR33</t>
+  </si>
+  <si>
+    <t>USIM3</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,42 +415,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>10000</v>
+        <v>978.58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>10000</v>
+        <v>2935.44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>10000</v>
+        <v>2922.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>10000</v>
+        <v>1091.0899999999999</v>
       </c>
     </row>
   </sheetData>
